--- a/owlcms/src/main/resources/templates/competitionResults/MastersResults-A4.xlsx
+++ b/owlcms/src/main/resources/templates/competitionResults/MastersResults-A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F80E8E-16C0-4519-BA29-FE0CC5FAC38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88894D5-EE7A-49AF-BAC8-7BF5968CECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="2235" windowWidth="23985" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2925" windowWidth="23985" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1728,7 +1728,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
@@ -1744,7 +1744,7 @@
     <col min="16" max="18" width="7.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" customWidth="1"/>
     <col min="20" max="20" width="8.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="1" customWidth="1"/>
     <col min="22" max="22" width="10.140625" style="3" customWidth="1"/>
     <col min="23" max="23" width="10.140625" style="1" customWidth="1"/>
     <col min="24" max="24" width="8.140625" style="1" hidden="1" customWidth="1"/>
